--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>945572.4831795261</v>
+        <v>943136.8462558187</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673453</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11316641.57080508</v>
+        <v>11316641.57080507</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103.4848631226327</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801443</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>84.23275294016419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>262.4033500842938</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>271.2903285220056</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.5215209693902</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>37.89796086990572</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>118.2708408728595</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>265.9436437829472</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.92365879439235</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>69.60662835550703</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>113.5103646250813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>28.11749662299605</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>29.89682419784078</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203237998</v>
+        <v>22.6077720323805</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114085</v>
+        <v>97.97552699114115</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458122</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035096</v>
+        <v>9.753166794035337</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>69.95408069127819</v>
+        <v>136.6856111842591</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034029</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146351</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.6173698503545</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>81.37259901119342</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.099360810322009</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F19" t="n">
-        <v>83.06560892428084</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710069</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>167.3637267182058</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.584653352097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>23.1099832571722</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174098</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740245</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>152.6628237007928</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465697</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>35.4177059712661</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016455</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699798</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272866</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.5813113004309</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>114.720561100775</v>
+        <v>99.97427419833744</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670948</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649823</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379709</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2435.796531379709</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2045.657199403897</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1553.108092385688</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1553.108092385688</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>1325.11854148767</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>1104.32596234414</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1892.963660013481</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,7 +4562,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4574,43 +4574,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520489</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y5" t="n">
-        <v>2619.198073544678</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064581</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>979.777809584932</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="C7" t="n">
-        <v>810.8416266570251</v>
+        <v>482.9841991736007</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>332.8675597612649</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1450.843444452132</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1161.426274415172</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X7" t="n">
-        <v>1161.426274415172</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="Y7" t="n">
-        <v>1161.426274415172</v>
+        <v>651.9203821015076</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1501.213961756483</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1501.213961756483</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1142.948263149733</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>757.1600105514885</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>346.174105761881</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>335.1420596472815</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796417</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1887.813801820605</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4875,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2070.12383051715</v>
+        <v>1535.258832689344</v>
       </c>
       <c r="C11" t="n">
-        <v>1701.161313576739</v>
+        <v>1166.296315748932</v>
       </c>
       <c r="D11" t="n">
-        <v>1342.895614969988</v>
+        <v>808.0306171421821</v>
       </c>
       <c r="E11" t="n">
-        <v>957.1073623717443</v>
+        <v>422.242364543938</v>
       </c>
       <c r="F11" t="n">
-        <v>546.1214575821367</v>
+        <v>393.840852803538</v>
       </c>
       <c r="G11" t="n">
-        <v>131.5460119117837</v>
+        <v>393.840852803538</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907324</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.511066224692</v>
+        <v>78.5110662246917</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420335</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301227</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878113</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.18066176543</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687108</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.04835985629</v>
+        <v>3535.048359856277</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882249</v>
+        <v>3835.937563882235</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.5533112346</v>
+        <v>3925.553311234585</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455669</v>
+        <v>3826.588132455655</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.588132455669</v>
+        <v>3622.786021971435</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.097416088278</v>
+        <v>3369.295305604042</v>
       </c>
       <c r="V11" t="n">
-        <v>3573.097416088278</v>
+        <v>3038.232418260472</v>
       </c>
       <c r="W11" t="n">
-        <v>3220.328760818164</v>
+        <v>2685.463762990357</v>
       </c>
       <c r="X11" t="n">
-        <v>2846.863002557084</v>
+        <v>2311.998004729277</v>
       </c>
       <c r="Y11" t="n">
-        <v>2456.723670581272</v>
+        <v>1921.858672753466</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503049</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.511066224692</v>
+        <v>78.5110662246917</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792134</v>
+        <v>196.8120623792124</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376515</v>
+        <v>477.1621322376494</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649619</v>
+        <v>900.4499396649585</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908852</v>
+        <v>1337.658805224964</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.649813467295</v>
+        <v>1878.96711257603</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333045</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1015.247221192406</v>
+        <v>385.5135230760924</v>
       </c>
       <c r="C13" t="n">
-        <v>846.3110382644995</v>
+        <v>216.5773401481855</v>
       </c>
       <c r="D13" t="n">
-        <v>775.6503506975519</v>
+        <v>78.5110662246917</v>
       </c>
       <c r="E13" t="n">
-        <v>627.7372571151587</v>
+        <v>78.5110662246917</v>
       </c>
       <c r="F13" t="n">
-        <v>480.8473096172484</v>
+        <v>78.5110662246917</v>
       </c>
       <c r="G13" t="n">
-        <v>313.3674120937911</v>
+        <v>78.5110662246917</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.5110662246917</v>
       </c>
       <c r="I13" t="n">
-        <v>78.511066224692</v>
+        <v>78.5110662246917</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600403</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.455047345771</v>
+        <v>368.4550473457698</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888928</v>
+        <v>717.5002252888908</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779223</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542996</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715852</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082524</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551108</v>
+        <v>2155.909043551102</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551108</v>
+        <v>2076.10273901427</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551108</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.094986101154</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="U13" t="n">
-        <v>1935.094986101154</v>
+        <v>1378.397311360487</v>
       </c>
       <c r="V13" t="n">
-        <v>1935.094986101154</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1645.677816064194</v>
+        <v>834.2956531176399</v>
       </c>
       <c r="X13" t="n">
-        <v>1417.688265166176</v>
+        <v>606.3061022196225</v>
       </c>
       <c r="Y13" t="n">
-        <v>1196.895686022646</v>
+        <v>385.5135230760924</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965431</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358681</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
         <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708295</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128751</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.60923933393</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021278</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070874</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820541</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.19805447697</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206856</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945776</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969964</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894392</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="L15" t="n">
-        <v>423.3203657894392</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="M15" t="n">
-        <v>1015.338720041567</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>553.7371625278922</v>
+        <v>494.0589900220742</v>
       </c>
       <c r="C16" t="n">
-        <v>384.8009795999853</v>
+        <v>325.1228070941672</v>
       </c>
       <c r="D16" t="n">
-        <v>234.6843401876497</v>
+        <v>175.0061676818316</v>
       </c>
       <c r="E16" t="n">
-        <v>234.6843401876497</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F16" t="n">
-        <v>234.6843401876497</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876497</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="R16" t="n">
-        <v>2420.194601874488</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="S16" t="n">
-        <v>2237.024411613418</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2017.3456293278</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1728.269415642527</v>
+        <v>1668.591243136709</v>
       </c>
       <c r="V16" t="n">
-        <v>1473.58492743664</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1184.167757399679</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>956.1782065016621</v>
+        <v>896.500033995844</v>
       </c>
       <c r="Y16" t="n">
-        <v>735.385627358132</v>
+        <v>675.7074548523138</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245714</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121634</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121634</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279802</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,19 +5750,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263197</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>680.4481746984128</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>530.331535286077</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036839</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057735</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057735</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797186</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.23212253507</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498109</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.825401600092</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.032822456559</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6078,13 +6078,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597622</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597622</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773692</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>117.1600804794589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>117.1600804794589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,52 +6215,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6291,40 +6291,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358626</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.6673633290468</v>
+        <v>513.853600740061</v>
       </c>
       <c r="C28" t="n">
-        <v>699.7311804011399</v>
+        <v>390.8232499582179</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797638</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910798</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570807</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279792</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885335</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832652</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487556</v>
       </c>
       <c r="T28" t="n">
-        <v>2042.857673062524</v>
+        <v>1977.461080510498</v>
       </c>
       <c r="U28" t="n">
-        <v>1753.782446406721</v>
+        <v>1688.385853854696</v>
       </c>
       <c r="V28" t="n">
-        <v>1499.097958200834</v>
+        <v>1433.701365648809</v>
       </c>
       <c r="W28" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611848</v>
       </c>
       <c r="X28" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138308</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703007</v>
       </c>
     </row>
     <row r="29">
@@ -6458,16 +6458,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327647</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048579</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925222</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101284</v>
+        <v>197.0043242297706</v>
       </c>
       <c r="F31" t="n">
-        <v>296.7882229101284</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>129.5921236250083</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536384</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257315</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133958</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310027</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330923</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7099,10 +7099,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>984.5467179762946</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C40" t="n">
-        <v>815.6105350483878</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D40" t="n">
-        <v>665.493895636052</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y40" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188009</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
         <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7585,13 +7585,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7652,10 +7652,10 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,13 +7828,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
         <v>1688.385853854706</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.7585491187154</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>259.6718924828364</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>78.66139232693416</v>
+        <v>11.92986183395328</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400679</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034046</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146325</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.2915261372918</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537576</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>59.08139078076158</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F19" t="n">
-        <v>62.35543909865775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856693</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>84.77391660562222</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182154</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>117.184729589052</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382460328</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>64.74262662649551</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295038</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>104.8770068749578</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823251</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>31.71340154579414</v>
+        <v>46.45968844823173</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897276.1100569054</v>
+        <v>897276.1100569038</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>976024.5492308958</v>
+        <v>976024.5492308962</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>981384.7428932659</v>
+        <v>981384.7428932661</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.7428932658</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.742893266</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.7428932661</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.7428932661</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>981384.7428932661</v>
+        <v>981384.7428932663</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253558</v>
@@ -26320,22 +26320,22 @@
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795045</v>
+        <v>405380.8397795036</v>
       </c>
       <c r="F2" t="n">
         <v>441473.8744009171</v>
       </c>
       <c r="G2" t="n">
+        <v>443930.6298295035</v>
+      </c>
+      <c r="H2" t="n">
+        <v>443930.6298295035</v>
+      </c>
+      <c r="I2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="H2" t="n">
-        <v>443930.6298295033</v>
-      </c>
-      <c r="I2" t="n">
-        <v>443930.6298295035</v>
-      </c>
       <c r="J2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="K2" t="n">
         <v>443930.6298295034</v>
@@ -26350,7 +26350,7 @@
         <v>443930.6298295034</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="P2" t="n">
         <v>443930.6298295034</v>
@@ -26366,43 +26366,43 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185179</v>
+        <v>143114.1392185142</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051355</v>
+        <v>166521.3471051397</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557904</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115386</v>
+        <v>37377.32855115295</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848847</v>
+        <v>43782.40655848959</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224693</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319395</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="E4" t="n">
         <v>13507.6871545367</v>
@@ -26436,19 +26436,19 @@
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="L4" t="n">
-        <v>13606.80811184275</v>
-      </c>
       <c r="M4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214727</v>
+        <v>86093.72216214698</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1077899.555746824</v>
       </c>
       <c r="C6" t="n">
-        <v>250845.1899807683</v>
+        <v>250845.1899807687</v>
       </c>
       <c r="D6" t="n">
-        <v>250845.1899807689</v>
+        <v>250845.1899807682</v>
       </c>
       <c r="E6" t="n">
-        <v>162665.2912443026</v>
+        <v>162455.327000461</v>
       </c>
       <c r="F6" t="n">
-        <v>161210.1232913259</v>
+        <v>161164.218295756</v>
       </c>
       <c r="G6" t="n">
-        <v>318034.0556581745</v>
+        <v>317999.3177327393</v>
       </c>
       <c r="H6" t="n">
-        <v>329201.2918937535</v>
+        <v>329166.553968318</v>
       </c>
       <c r="I6" t="n">
-        <v>329201.2918937536</v>
+        <v>329166.5539683179</v>
       </c>
       <c r="J6" t="n">
-        <v>111670.089496476</v>
+        <v>111635.3515710406</v>
       </c>
       <c r="K6" t="n">
-        <v>329201.2918937536</v>
+        <v>329166.5539683176</v>
       </c>
       <c r="L6" t="n">
-        <v>329201.2918937536</v>
+        <v>329166.5539683177</v>
       </c>
       <c r="M6" t="n">
-        <v>291823.9633425996</v>
+        <v>291789.2254171649</v>
       </c>
       <c r="N6" t="n">
-        <v>285418.8853352651</v>
+        <v>285384.1474098283</v>
       </c>
       <c r="O6" t="n">
-        <v>326177.9939165288</v>
+        <v>326143.2559910932</v>
       </c>
       <c r="P6" t="n">
-        <v>329201.2918937536</v>
+        <v>329166.5539683179</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26738,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494558</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>981.3883278086499</v>
+        <v>981.3883278086463</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26960,31 +26960,31 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>122.3935669012594</v>
+        <v>122.3935669012562</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218277</v>
+        <v>145.8707812218313</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063573</v>
+        <v>149.9868724063534</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173561</v>
+        <v>178.7569625173606</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063573</v>
+        <v>149.9868724063537</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173561</v>
+        <v>178.7569625173606</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063573</v>
+        <v>149.9868724063534</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173561</v>
+        <v>178.7569625173606</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279.2489785408478</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.2444771426685</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>167.9048903836638</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>24.11964825229717</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.443513141475</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161733</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>110.7175121483066</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>28.16312177370968</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>28.6641206043733</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.3173099230207</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>96.4191799035212</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>105.0742887270135</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-5.069591206814466e-12</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.512713316715693e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.333857380491618e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>3.204940500594301e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-8.346614304140048e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2.629936469605323e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29958,7 +29958,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.769894020931714e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485656</v>
+        <v>4.873046301485643</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508998</v>
+        <v>49.90608543508985</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380259</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307185</v>
+        <v>413.5937135307174</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726065</v>
+        <v>619.8697634726049</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216983</v>
+        <v>769.0032542216962</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857437</v>
+        <v>855.6642913857414</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898399</v>
+        <v>869.5098341898376</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294419</v>
+        <v>821.0534800294397</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615146</v>
+        <v>700.7501494615128</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895595</v>
+        <v>526.2341787895581</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356986</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951045</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475347</v>
+        <v>21.33176018475341</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188524</v>
+        <v>0.3898437041188513</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969426</v>
+        <v>2.607309631969419</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191525</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059649</v>
+        <v>89.76921320596466</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783045</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.023327720256</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256424</v>
+        <v>566.1178216256409</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845339</v>
+        <v>583.7591506492961</v>
       </c>
       <c r="N12" t="n">
-        <v>446.378176283781</v>
+        <v>678.1177801147131</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431818</v>
+        <v>620.3452877431802</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205477</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071841</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697593</v>
+        <v>48.4296328569758</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780659</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190413</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236088</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737177</v>
+        <v>19.43446756737172</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691799</v>
+        <v>65.73539745691782</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836914</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619745</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.980861550918</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263714</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973099</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050064</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.37234817619</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916782</v>
+        <v>183.0377103916777</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570623</v>
+        <v>98.28514988570598</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929617</v>
+        <v>38.09394102929607</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826917</v>
+        <v>9.339672552826892</v>
       </c>
       <c r="U13" t="n">
-        <v>0.119229862376514</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>139.4267020936821</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848223</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>475.1958962420771</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139914</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,16 +34208,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040322</v>
+        <v>232.5478090040311</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276259</v>
+        <v>399.7799124276243</v>
       </c>
       <c r="L11" t="n">
-        <v>533.236839251711</v>
+        <v>533.2368392517089</v>
       </c>
       <c r="M11" t="n">
-        <v>625.318058158471</v>
+        <v>625.3180581584687</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932489</v>
+        <v>640.0967705932467</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077551</v>
+        <v>590.9552686077529</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062451</v>
+        <v>469.5171537062433</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151099</v>
+        <v>303.9284889151086</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156644</v>
+        <v>90.52095692156564</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116378</v>
+        <v>119.4959557116371</v>
       </c>
       <c r="K12" t="n">
-        <v>283.181888745897</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457682</v>
+        <v>427.5634418457667</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625155</v>
+        <v>441.6251167272778</v>
       </c>
       <c r="N12" t="n">
-        <v>315.0364642004477</v>
+        <v>546.7760680313799</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987373</v>
+        <v>477.7490432987357</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062175</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211626</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.2024045893655</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701861</v>
+        <v>61.18259316701818</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360916</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112341</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788212</v>
+        <v>382.230629788211</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765385</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.549444619046</v>
+        <v>333.5494446190452</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410835</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998383</v>
+        <v>96.87566713998335</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12.58907542701537</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104633</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>343.8541841587437</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396324</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191208</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060445</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
@@ -37856,16 +37856,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
